--- a/spider/glory/glory_new.xlsx
+++ b/spider/glory/glory_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579">
   <si>
     <t>url</t>
   </si>
@@ -118,7 +118,7 @@
     <t>曜</t>
   </si>
   <si>
-    <t>战士,刺客</t>
+    <t>战士</t>
   </si>
   <si>
     <t>总的来说曜的技能看起来是很酷炫但是还不知道实战表现如何。虽然不是四技能的英雄，但是有了被动技能的强化看起来也需要像老夫子或者花木兰那样，利用好能量格以及技能的CD来打输出。这样看来对于手残玩家又是一个噩耗了。</t>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>盘古</t>
-  </si>
-  <si>
-    <t>战士</t>
   </si>
   <si>
     <t>-盘古的1技能具有较强的操作空间，合理判断敌我的位置关系，可将敌人击退到一个对自己最有利的位置去 -盘古的大招在队友的支持下会十分强大，让队友一起抱团作战，更利于盘古发挥</t>
@@ -5771,8 +5768,8 @@
   <sheetPr/>
   <dimension ref="A1:AF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -6254,19 +6251,19 @@
         <v>89</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>91</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
         <v>92</v>
-      </c>
-      <c r="I6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
       </c>
       <c r="K6" t="s">
         <v>37</v>
@@ -6340,35 +6337,35 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
         <v>96</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>99</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
       </c>
       <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
         <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" t="s">
         <v>82</v>
@@ -6416,7 +6413,7 @@
         <v>61</v>
       </c>
       <c r="AB7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC7">
         <v>10</v>
@@ -6436,23 +6433,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" t="s">
         <v>51</v>
       </c>
       <c r="G8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" t="s">
         <v>106</v>
-      </c>
-      <c r="H8" t="s">
-        <v>107</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
@@ -6476,7 +6473,7 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="s">
         <v>37</v>
@@ -6532,35 +6529,35 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" t="s">
         <v>112</v>
-      </c>
-      <c r="H9" t="s">
-        <v>113</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6572,7 +6569,7 @@
         <v>42</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q9" t="s">
         <v>37</v>
@@ -6628,38 +6625,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" t="s">
         <v>117</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>119</v>
-      </c>
-      <c r="H10" t="s">
-        <v>120</v>
       </c>
       <c r="I10" t="s">
         <v>54</v>
       </c>
       <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>122</v>
-      </c>
-      <c r="M10" t="s">
-        <v>123</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
@@ -6668,7 +6665,7 @@
         <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q10" t="s">
         <v>37</v>
@@ -6701,10 +6698,10 @@
         <v>37</v>
       </c>
       <c r="AA10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB10" t="s">
         <v>125</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>126</v>
       </c>
       <c r="AC10">
         <v>4</v>
@@ -6724,26 +6721,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
@@ -6752,16 +6749,16 @@
         <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N11" t="s">
         <v>41</v>
       </c>
       <c r="O11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" t="s">
         <v>132</v>
-      </c>
-      <c r="P11" t="s">
-        <v>133</v>
       </c>
       <c r="Q11" t="s">
         <v>37</v>
@@ -6797,7 +6794,7 @@
         <v>41</v>
       </c>
       <c r="AB11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC11">
         <v>10</v>
@@ -6817,26 +6814,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
         <v>54</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
@@ -6887,10 +6884,10 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC12">
         <v>3</v>
@@ -6910,26 +6907,26 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
         <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
         <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
@@ -6938,13 +6935,13 @@
         <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s">
         <v>41</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P13" t="s">
         <v>58</v>
@@ -6980,10 +6977,10 @@
         <v>37</v>
       </c>
       <c r="AA13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC13">
         <v>4</v>
@@ -7003,35 +7000,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s">
+        <v>146</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
         <v>147</v>
       </c>
-      <c r="F14" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>148</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>149</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
         <v>150</v>
       </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>151</v>
-      </c>
-      <c r="M14" t="s">
-        <v>152</v>
       </c>
       <c r="N14" t="s">
         <v>41</v>
@@ -7043,10 +7040,10 @@
         <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S14" t="s">
         <v>45</v>
@@ -7064,7 +7061,7 @@
         <v>45</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="s">
         <v>46</v>
@@ -7096,23 +7093,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
       </c>
       <c r="H15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
         <v>158</v>
-      </c>
-      <c r="I15" t="s">
-        <v>159</v>
       </c>
       <c r="J15" t="s">
         <v>69</v>
@@ -7124,13 +7121,13 @@
         <v>70</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s">
         <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P15" t="s">
         <v>72</v>
@@ -7166,10 +7163,10 @@
         <v>45</v>
       </c>
       <c r="AA15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC15">
         <v>5</v>
@@ -7189,23 +7186,23 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
         <v>164</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H16" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" t="s">
-        <v>165</v>
       </c>
       <c r="J16" t="s">
         <v>69</v>
@@ -7214,16 +7211,16 @@
         <v>37</v>
       </c>
       <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="s">
         <v>166</v>
-      </c>
-      <c r="M16" t="s">
-        <v>167</v>
       </c>
       <c r="N16" t="s">
         <v>41</v>
       </c>
       <c r="O16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P16" t="s">
         <v>58</v>
@@ -7259,7 +7256,7 @@
         <v>37</v>
       </c>
       <c r="AA16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB16" t="s">
         <v>62</v>
@@ -7282,26 +7279,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
         <v>53</v>
       </c>
       <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
         <v>172</v>
-      </c>
-      <c r="J17" t="s">
-        <v>173</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
@@ -7310,16 +7307,16 @@
         <v>56</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s">
         <v>41</v>
       </c>
       <c r="O17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U17" t="s">
         <v>59</v>
@@ -7354,23 +7351,23 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
         <v>69</v>
@@ -7379,16 +7376,16 @@
         <v>69</v>
       </c>
       <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="s">
         <v>180</v>
-      </c>
-      <c r="M18" t="s">
-        <v>181</v>
       </c>
       <c r="N18" t="s">
         <v>41</v>
       </c>
       <c r="O18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P18" t="s">
         <v>58</v>
@@ -7403,7 +7400,7 @@
         <v>60</v>
       </c>
       <c r="AA18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB18" t="s">
         <v>62</v>
@@ -7426,44 +7423,44 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
         <v>185</v>
       </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>186</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>187</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
         <v>188</v>
       </c>
-      <c r="K19" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>189</v>
-      </c>
-      <c r="M19" t="s">
-        <v>190</v>
       </c>
       <c r="N19" t="s">
         <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q19" t="s">
         <v>37</v>
@@ -7496,10 +7493,10 @@
         <v>37</v>
       </c>
       <c r="AA19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC19">
         <v>3</v>
@@ -7519,14 +7516,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
@@ -7535,10 +7532,10 @@
         <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>
@@ -7547,16 +7544,16 @@
         <v>81</v>
       </c>
       <c r="M20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
         <v>41</v>
       </c>
       <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" t="s">
-        <v>133</v>
       </c>
       <c r="Q20" t="s">
         <v>37</v>
@@ -7592,7 +7589,7 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC20">
         <v>9</v>
@@ -7612,41 +7609,41 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
         <v>66</v>
       </c>
       <c r="H21" t="s">
+        <v>198</v>
+      </c>
+      <c r="I21" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" t="s">
         <v>199</v>
       </c>
-      <c r="I21" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
         <v>200</v>
       </c>
-      <c r="K21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>201</v>
-      </c>
-      <c r="M21" t="s">
-        <v>202</v>
       </c>
       <c r="N21" t="s">
         <v>41</v>
       </c>
       <c r="O21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P21" t="s">
         <v>72</v>
@@ -7682,10 +7679,10 @@
         <v>37</v>
       </c>
       <c r="AA21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC21">
         <v>5</v>
@@ -7705,41 +7702,41 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" t="s">
         <v>206</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>207</v>
       </c>
-      <c r="H22" t="s">
-        <v>208</v>
-      </c>
       <c r="I22" t="s">
         <v>37</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K22" t="s">
         <v>37</v>
       </c>
       <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="s">
         <v>180</v>
-      </c>
-      <c r="M22" t="s">
-        <v>181</v>
       </c>
       <c r="N22" t="s">
         <v>41</v>
       </c>
       <c r="O22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P22" t="s">
         <v>72</v>
@@ -7775,7 +7772,7 @@
         <v>37</v>
       </c>
       <c r="AA22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB22" t="s">
         <v>37</v>
@@ -7798,47 +7795,47 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I23" t="s">
         <v>79</v>
       </c>
       <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
         <v>188</v>
       </c>
-      <c r="K23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" t="s">
-        <v>189</v>
-      </c>
       <c r="M23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N23" t="s">
         <v>41</v>
       </c>
       <c r="O23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U23" t="s">
         <v>84</v>
@@ -7850,10 +7847,10 @@
         <v>60</v>
       </c>
       <c r="AA23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC23">
         <v>3</v>
@@ -7873,41 +7870,41 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
         <v>66</v>
       </c>
       <c r="H24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
         <v>217</v>
       </c>
-      <c r="I24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
         <v>218</v>
       </c>
-      <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>219</v>
-      </c>
-      <c r="M24" t="s">
-        <v>220</v>
       </c>
       <c r="N24" t="s">
         <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P24" t="s">
         <v>72</v>
@@ -7966,23 +7963,23 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" t="s">
         <v>69</v>
@@ -7991,16 +7988,16 @@
         <v>37</v>
       </c>
       <c r="L25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" t="s">
         <v>180</v>
-      </c>
-      <c r="M25" t="s">
-        <v>181</v>
       </c>
       <c r="N25" t="s">
         <v>41</v>
       </c>
       <c r="O25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P25" t="s">
         <v>58</v>
@@ -8036,7 +8033,7 @@
         <v>37</v>
       </c>
       <c r="AA25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB25" t="s">
         <v>62</v>
@@ -8059,44 +8056,44 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
         <v>226</v>
-      </c>
-      <c r="F26" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" t="s">
-        <v>227</v>
       </c>
       <c r="I26" t="s">
         <v>54</v>
       </c>
       <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
         <v>228</v>
-      </c>
-      <c r="K26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" t="s">
-        <v>101</v>
-      </c>
-      <c r="M26" t="s">
-        <v>229</v>
       </c>
       <c r="N26" t="s">
         <v>41</v>
       </c>
       <c r="O26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q26" t="s">
         <v>37</v>
@@ -8129,10 +8126,10 @@
         <v>37</v>
       </c>
       <c r="AA26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC26">
         <v>4</v>
@@ -8152,44 +8149,44 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
         <v>232</v>
       </c>
-      <c r="F27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
+        <v>164</v>
+      </c>
+      <c r="J27" t="s">
         <v>233</v>
       </c>
-      <c r="I27" t="s">
-        <v>165</v>
-      </c>
-      <c r="J27" t="s">
-        <v>234</v>
-      </c>
       <c r="K27" t="s">
         <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s">
         <v>41</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q27" t="s">
         <v>37</v>
@@ -8222,7 +8219,7 @@
         <v>37</v>
       </c>
       <c r="AA27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="s">
         <v>62</v>
@@ -8245,41 +8242,41 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s">
         <v>237</v>
       </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>238</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>239</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" t="s">
         <v>240</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" t="s">
-        <v>241</v>
       </c>
       <c r="N28" t="s">
         <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P28" t="s">
         <v>72</v>
@@ -8338,44 +8335,44 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
       </c>
       <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" t="s">
         <v>188</v>
       </c>
-      <c r="K29" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" t="s">
-        <v>189</v>
-      </c>
       <c r="M29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N29" t="s">
         <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q29" t="s">
         <v>37</v>
@@ -8408,10 +8405,10 @@
         <v>37</v>
       </c>
       <c r="AA29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC29">
         <v>3</v>
@@ -8431,23 +8428,23 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J30" t="s">
         <v>69</v>
@@ -8456,16 +8453,16 @@
         <v>37</v>
       </c>
       <c r="L30" t="s">
+        <v>179</v>
+      </c>
+      <c r="M30" t="s">
         <v>180</v>
-      </c>
-      <c r="M30" t="s">
-        <v>181</v>
       </c>
       <c r="N30" t="s">
         <v>41</v>
       </c>
       <c r="O30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P30" t="s">
         <v>58</v>
@@ -8501,7 +8498,7 @@
         <v>37</v>
       </c>
       <c r="AA30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB30" t="s">
         <v>62</v>
@@ -8524,26 +8521,26 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I31" t="s">
         <v>79</v>
       </c>
       <c r="J31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" t="s">
         <v>37</v>
@@ -8552,16 +8549,16 @@
         <v>56</v>
       </c>
       <c r="M31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
       </c>
       <c r="O31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q31" t="s">
         <v>37</v>
@@ -8594,10 +8591,10 @@
         <v>37</v>
       </c>
       <c r="AA31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AB31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC31">
         <v>2</v>
@@ -8617,44 +8614,44 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F32" t="s">
         <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I32" t="s">
         <v>54</v>
       </c>
       <c r="J32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s">
         <v>37</v>
       </c>
       <c r="L32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N32" t="s">
         <v>41</v>
       </c>
       <c r="O32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q32" t="s">
         <v>37</v>
@@ -8687,10 +8684,10 @@
         <v>37</v>
       </c>
       <c r="AA32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC32">
         <v>3</v>
@@ -8710,23 +8707,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
+        <v>157</v>
+      </c>
+      <c r="I33" t="s">
         <v>158</v>
-      </c>
-      <c r="I33" t="s">
-        <v>159</v>
       </c>
       <c r="J33" t="s">
         <v>69</v>
@@ -8738,13 +8735,13 @@
         <v>70</v>
       </c>
       <c r="M33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N33" t="s">
         <v>41</v>
       </c>
       <c r="O33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P33" t="s">
         <v>72</v>
@@ -8780,10 +8777,10 @@
         <v>45</v>
       </c>
       <c r="AA33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AB33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC33">
         <v>9</v>
@@ -8803,26 +8800,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
         <v>263</v>
       </c>
-      <c r="F34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" t="s">
-        <v>264</v>
-      </c>
       <c r="I34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s">
         <v>37</v>
@@ -8831,7 +8828,7 @@
         <v>39</v>
       </c>
       <c r="M34" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N34" t="s">
         <v>41</v>
@@ -8896,41 +8893,41 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
         <v>268</v>
       </c>
-      <c r="F35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" t="s">
         <v>269</v>
       </c>
-      <c r="I35" t="s">
-        <v>187</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" t="s">
         <v>270</v>
       </c>
-      <c r="K35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>271</v>
-      </c>
-      <c r="M35" t="s">
-        <v>272</v>
       </c>
       <c r="N35" t="s">
         <v>41</v>
       </c>
       <c r="O35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P35" t="s">
         <v>72</v>
@@ -8966,7 +8963,7 @@
         <v>37</v>
       </c>
       <c r="AA35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB35" t="s">
         <v>86</v>
@@ -8989,26 +8986,26 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" t="s">
         <v>275</v>
-      </c>
-      <c r="F36" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" t="s">
-        <v>276</v>
       </c>
       <c r="I36" t="s">
         <v>79</v>
       </c>
       <c r="J36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s">
         <v>37</v>
@@ -9017,13 +9014,13 @@
         <v>39</v>
       </c>
       <c r="M36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N36" t="s">
         <v>41</v>
       </c>
       <c r="O36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P36" t="s">
         <v>43</v>
@@ -9059,7 +9056,7 @@
         <v>37</v>
       </c>
       <c r="AA36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB36" t="s">
         <v>86</v>
@@ -9082,44 +9079,44 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" t="s">
         <v>281</v>
       </c>
-      <c r="F37" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" t="s">
-        <v>282</v>
-      </c>
       <c r="I37" t="s">
         <v>37</v>
       </c>
       <c r="J37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K37" t="s">
         <v>37</v>
       </c>
       <c r="L37" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" t="s">
         <v>166</v>
-      </c>
-      <c r="M37" t="s">
-        <v>167</v>
       </c>
       <c r="N37" t="s">
         <v>41</v>
       </c>
       <c r="O37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q37" t="s">
         <v>37</v>
@@ -9152,7 +9149,7 @@
         <v>37</v>
       </c>
       <c r="AA37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB37" t="s">
         <v>37</v>
@@ -9175,26 +9172,26 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38" t="s">
         <v>53</v>
       </c>
       <c r="I38" t="s">
+        <v>171</v>
+      </c>
+      <c r="J38" t="s">
         <v>172</v>
-      </c>
-      <c r="J38" t="s">
-        <v>173</v>
       </c>
       <c r="K38" t="s">
         <v>37</v>
@@ -9203,16 +9200,16 @@
         <v>56</v>
       </c>
       <c r="M38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N38" t="s">
         <v>41</v>
       </c>
       <c r="O38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q38" t="s">
         <v>37</v>
@@ -9268,44 +9265,44 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" t="s">
         <v>290</v>
       </c>
-      <c r="F39" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" t="s">
         <v>291</v>
       </c>
-      <c r="I39" t="s">
-        <v>239</v>
-      </c>
-      <c r="J39" t="s">
-        <v>100</v>
-      </c>
-      <c r="K39" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>292</v>
-      </c>
-      <c r="M39" t="s">
-        <v>293</v>
       </c>
       <c r="N39" t="s">
         <v>41</v>
       </c>
       <c r="O39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q39" t="s">
         <v>37</v>
@@ -9338,7 +9335,7 @@
         <v>37</v>
       </c>
       <c r="AA39" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB39" t="s">
         <v>86</v>
@@ -9361,23 +9358,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" t="s">
         <v>297</v>
       </c>
-      <c r="F40" t="s">
-        <v>207</v>
-      </c>
-      <c r="H40" t="s">
-        <v>298</v>
-      </c>
       <c r="I40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J40" t="s">
         <v>69</v>
@@ -9386,16 +9383,16 @@
         <v>37</v>
       </c>
       <c r="L40" t="s">
+        <v>298</v>
+      </c>
+      <c r="M40" t="s">
         <v>299</v>
-      </c>
-      <c r="M40" t="s">
-        <v>300</v>
       </c>
       <c r="N40" t="s">
         <v>41</v>
       </c>
       <c r="O40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P40" t="s">
         <v>72</v>
@@ -9431,7 +9428,7 @@
         <v>37</v>
       </c>
       <c r="AA40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB40" t="s">
         <v>86</v>
@@ -9454,23 +9451,23 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J41" t="s">
         <v>69</v>
@@ -9479,16 +9476,16 @@
         <v>37</v>
       </c>
       <c r="L41" t="s">
+        <v>165</v>
+      </c>
+      <c r="M41" t="s">
         <v>166</v>
-      </c>
-      <c r="M41" t="s">
-        <v>167</v>
       </c>
       <c r="N41" t="s">
         <v>41</v>
       </c>
       <c r="O41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P41" t="s">
         <v>58</v>
@@ -9524,7 +9521,7 @@
         <v>37</v>
       </c>
       <c r="AA41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB41" t="s">
         <v>62</v>
@@ -9547,41 +9544,41 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s">
+        <v>305</v>
+      </c>
+      <c r="F42" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" t="s">
         <v>306</v>
       </c>
-      <c r="F42" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>307</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>308</v>
       </c>
-      <c r="J42" t="s">
-        <v>309</v>
-      </c>
       <c r="K42" t="s">
         <v>37</v>
       </c>
       <c r="L42" t="s">
+        <v>298</v>
+      </c>
+      <c r="M42" t="s">
         <v>299</v>
-      </c>
-      <c r="M42" t="s">
-        <v>300</v>
       </c>
       <c r="N42" t="s">
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P42" t="s">
         <v>72</v>
@@ -9617,7 +9614,7 @@
         <v>37</v>
       </c>
       <c r="AA42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB42" t="s">
         <v>37</v>
@@ -9640,44 +9637,44 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s">
+        <v>311</v>
+      </c>
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" t="s">
         <v>312</v>
-      </c>
-      <c r="F43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H43" t="s">
-        <v>313</v>
       </c>
       <c r="I43" t="s">
         <v>79</v>
       </c>
       <c r="J43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K43" t="s">
         <v>37</v>
       </c>
       <c r="L43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N43" t="s">
         <v>41</v>
       </c>
       <c r="O43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q43" t="s">
         <v>37</v>
@@ -9710,10 +9707,10 @@
         <v>37</v>
       </c>
       <c r="AA43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AB43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC43">
         <v>3</v>
@@ -9733,44 +9730,44 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F44" t="s">
         <v>51</v>
       </c>
       <c r="H44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
         <v>37</v>
       </c>
       <c r="L44" t="s">
+        <v>218</v>
+      </c>
+      <c r="M44" t="s">
         <v>219</v>
-      </c>
-      <c r="M44" t="s">
-        <v>220</v>
       </c>
       <c r="N44" t="s">
         <v>41</v>
       </c>
       <c r="O44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P44" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q44" t="s">
         <v>37</v>
@@ -9826,41 +9823,41 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" t="s">
+        <v>164</v>
+      </c>
+      <c r="J45" t="s">
         <v>321</v>
       </c>
-      <c r="F45" t="s">
-        <v>207</v>
-      </c>
-      <c r="H45" t="s">
-        <v>208</v>
-      </c>
-      <c r="I45" t="s">
-        <v>165</v>
-      </c>
-      <c r="J45" t="s">
-        <v>322</v>
-      </c>
       <c r="K45" t="s">
         <v>37</v>
       </c>
       <c r="L45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N45" t="s">
         <v>41</v>
       </c>
       <c r="O45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P45" t="s">
         <v>72</v>
@@ -9896,7 +9893,7 @@
         <v>37</v>
       </c>
       <c r="AA45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB45" t="s">
         <v>62</v>
@@ -9919,44 +9916,44 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" t="s">
         <v>326</v>
-      </c>
-      <c r="F46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46" t="s">
-        <v>327</v>
       </c>
       <c r="I46" t="s">
         <v>79</v>
       </c>
       <c r="J46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K46" t="s">
         <v>37</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N46" t="s">
         <v>41</v>
       </c>
       <c r="O46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q46" t="s">
         <v>37</v>
@@ -9989,7 +9986,7 @@
         <v>37</v>
       </c>
       <c r="AA46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AB46" t="s">
         <v>86</v>
@@ -10012,41 +10009,41 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47" t="s">
+        <v>206</v>
+      </c>
+      <c r="H47" t="s">
         <v>330</v>
       </c>
-      <c r="F47" t="s">
-        <v>207</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>331</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>332</v>
       </c>
-      <c r="J47" t="s">
-        <v>333</v>
-      </c>
       <c r="K47" t="s">
         <v>37</v>
       </c>
       <c r="L47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N47" t="s">
         <v>41</v>
       </c>
       <c r="O47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P47" t="s">
         <v>72</v>
@@ -10082,10 +10079,10 @@
         <v>37</v>
       </c>
       <c r="AA47" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB47" t="s">
         <v>334</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>335</v>
       </c>
       <c r="AC47">
         <v>9</v>
@@ -10105,26 +10102,26 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s">
+        <v>337</v>
+      </c>
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" t="s">
         <v>338</v>
-      </c>
-      <c r="F48" t="s">
-        <v>97</v>
-      </c>
-      <c r="H48" t="s">
-        <v>339</v>
       </c>
       <c r="I48" t="s">
         <v>54</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s">
         <v>37</v>
@@ -10133,13 +10130,13 @@
         <v>70</v>
       </c>
       <c r="M48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N48" t="s">
         <v>41</v>
       </c>
       <c r="O48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P48" t="s">
         <v>58</v>
@@ -10175,7 +10172,7 @@
         <v>37</v>
       </c>
       <c r="AA48" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB48" t="s">
         <v>62</v>
@@ -10198,41 +10195,41 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I49" t="s">
         <v>79</v>
       </c>
       <c r="J49" t="s">
+        <v>187</v>
+      </c>
+      <c r="K49" t="s">
+        <v>37</v>
+      </c>
+      <c r="L49" t="s">
         <v>188</v>
       </c>
-      <c r="K49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L49" t="s">
-        <v>189</v>
-      </c>
       <c r="M49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N49" t="s">
         <v>41</v>
       </c>
       <c r="O49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P49" t="s">
         <v>58</v>
@@ -10268,10 +10265,10 @@
         <v>37</v>
       </c>
       <c r="AA49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC49">
         <v>3</v>
@@ -10291,44 +10288,44 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s">
+        <v>344</v>
+      </c>
+      <c r="F50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" t="s">
         <v>345</v>
-      </c>
-      <c r="F50" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" t="s">
-        <v>346</v>
       </c>
       <c r="I50" t="s">
         <v>79</v>
       </c>
       <c r="J50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K50" t="s">
         <v>37</v>
       </c>
       <c r="L50" t="s">
+        <v>200</v>
+      </c>
+      <c r="M50" t="s">
         <v>201</v>
-      </c>
-      <c r="M50" t="s">
-        <v>202</v>
       </c>
       <c r="N50" t="s">
         <v>41</v>
       </c>
       <c r="O50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q50" t="s">
         <v>37</v>
@@ -10361,7 +10358,7 @@
         <v>37</v>
       </c>
       <c r="AA50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB50" t="s">
         <v>86</v>
@@ -10384,41 +10381,41 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F51" t="s">
         <v>51</v>
       </c>
       <c r="H51" t="s">
+        <v>350</v>
+      </c>
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+      <c r="J51" t="s">
+        <v>233</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s">
         <v>351</v>
       </c>
-      <c r="I51" t="s">
-        <v>159</v>
-      </c>
-      <c r="J51" t="s">
-        <v>234</v>
-      </c>
-      <c r="K51" t="s">
-        <v>37</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>352</v>
-      </c>
-      <c r="M51" t="s">
-        <v>353</v>
       </c>
       <c r="N51" t="s">
         <v>41</v>
       </c>
       <c r="O51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P51" t="s">
         <v>72</v>
@@ -10454,10 +10451,10 @@
         <v>37</v>
       </c>
       <c r="AA51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC51">
         <v>1</v>
@@ -10477,44 +10474,44 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s">
+        <v>356</v>
+      </c>
+      <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" t="s">
         <v>357</v>
       </c>
-      <c r="F52" t="s">
-        <v>90</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" t="s">
         <v>358</v>
       </c>
-      <c r="I52" t="s">
-        <v>37</v>
-      </c>
-      <c r="J52" t="s">
-        <v>359</v>
-      </c>
       <c r="K52" t="s">
         <v>37</v>
       </c>
       <c r="L52" t="s">
+        <v>291</v>
+      </c>
+      <c r="M52" t="s">
         <v>292</v>
-      </c>
-      <c r="M52" t="s">
-        <v>293</v>
       </c>
       <c r="N52" t="s">
         <v>41</v>
       </c>
       <c r="O52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q52" t="s">
         <v>37</v>
@@ -10547,7 +10544,7 @@
         <v>37</v>
       </c>
       <c r="AA52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB52" t="s">
         <v>37</v>
@@ -10570,41 +10567,41 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s">
+        <v>363</v>
+      </c>
+      <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" t="s">
         <v>364</v>
       </c>
-      <c r="F53" t="s">
-        <v>90</v>
-      </c>
-      <c r="H53" t="s">
-        <v>365</v>
-      </c>
       <c r="I53" t="s">
         <v>37</v>
       </c>
       <c r="J53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K53" t="s">
         <v>37</v>
       </c>
       <c r="L53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N53" t="s">
         <v>41</v>
       </c>
       <c r="O53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P53" t="s">
         <v>72</v>
@@ -10640,7 +10637,7 @@
         <v>37</v>
       </c>
       <c r="AA53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB53" t="s">
         <v>37</v>
@@ -10663,44 +10660,44 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F54" t="s">
         <v>66</v>
       </c>
       <c r="H54" t="s">
+        <v>368</v>
+      </c>
+      <c r="I54" t="s">
+        <v>158</v>
+      </c>
+      <c r="J54" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" t="s">
         <v>369</v>
       </c>
-      <c r="I54" t="s">
-        <v>159</v>
-      </c>
-      <c r="J54" t="s">
-        <v>114</v>
-      </c>
-      <c r="K54" t="s">
-        <v>37</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>370</v>
-      </c>
-      <c r="M54" t="s">
-        <v>371</v>
       </c>
       <c r="N54" t="s">
         <v>41</v>
       </c>
       <c r="O54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P54" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q54" t="s">
         <v>37</v>
@@ -10733,10 +10730,10 @@
         <v>37</v>
       </c>
       <c r="AA54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB54" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AC54">
         <v>2</v>
@@ -10756,41 +10753,41 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F55" t="s">
         <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K55" t="s">
         <v>37</v>
       </c>
       <c r="L55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N55" t="s">
         <v>41</v>
       </c>
       <c r="O55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P55" t="s">
         <v>72</v>
@@ -10826,10 +10823,10 @@
         <v>37</v>
       </c>
       <c r="AA55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC55">
         <v>3</v>
@@ -10849,44 +10846,44 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F56" t="s">
         <v>66</v>
       </c>
       <c r="H56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K56" t="s">
         <v>37</v>
       </c>
       <c r="L56" t="s">
+        <v>270</v>
+      </c>
+      <c r="M56" t="s">
         <v>271</v>
-      </c>
-      <c r="M56" t="s">
-        <v>272</v>
       </c>
       <c r="N56" t="s">
         <v>41</v>
       </c>
       <c r="O56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q56" t="s">
         <v>37</v>
@@ -10922,7 +10919,7 @@
         <v>47</v>
       </c>
       <c r="AB56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC56">
         <v>3</v>
@@ -10942,44 +10939,44 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F57" t="s">
         <v>51</v>
       </c>
       <c r="H57" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I57" t="s">
         <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K57" t="s">
         <v>37</v>
       </c>
       <c r="L57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N57" t="s">
         <v>41</v>
       </c>
       <c r="O57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q57" t="s">
         <v>37</v>
@@ -11012,7 +11009,7 @@
         <v>37</v>
       </c>
       <c r="AA57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB57" t="s">
         <v>62</v>
@@ -11035,44 +11032,44 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F58" t="s">
         <v>51</v>
       </c>
       <c r="H58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I58" t="s">
         <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K58" t="s">
         <v>37</v>
       </c>
       <c r="L58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N58" t="s">
         <v>41</v>
       </c>
       <c r="O58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q58" t="s">
         <v>37</v>
@@ -11128,44 +11125,44 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F59" t="s">
         <v>51</v>
       </c>
       <c r="H59" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I59" t="s">
         <v>54</v>
       </c>
       <c r="J59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K59" t="s">
         <v>37</v>
       </c>
       <c r="L59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N59" t="s">
         <v>41</v>
       </c>
       <c r="O59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q59" t="s">
         <v>37</v>
@@ -11201,7 +11198,7 @@
         <v>61</v>
       </c>
       <c r="AB59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC59">
         <v>2</v>
@@ -11221,41 +11218,41 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s">
+        <v>395</v>
+      </c>
+      <c r="F60" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" t="s">
         <v>396</v>
       </c>
-      <c r="F60" t="s">
-        <v>207</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" t="s">
+        <v>255</v>
+      </c>
+      <c r="K60" t="s">
+        <v>37</v>
+      </c>
+      <c r="L60" t="s">
         <v>397</v>
       </c>
-      <c r="I60" t="s">
-        <v>165</v>
-      </c>
-      <c r="J60" t="s">
-        <v>256</v>
-      </c>
-      <c r="K60" t="s">
-        <v>37</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>398</v>
-      </c>
-      <c r="M60" t="s">
-        <v>399</v>
       </c>
       <c r="N60" t="s">
         <v>41</v>
       </c>
       <c r="O60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P60" t="s">
         <v>72</v>
@@ -11291,7 +11288,7 @@
         <v>37</v>
       </c>
       <c r="AA60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB60" t="s">
         <v>62</v>
@@ -11314,41 +11311,41 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s">
+        <v>401</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" t="s">
         <v>402</v>
       </c>
-      <c r="F61" t="s">
-        <v>90</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" t="s">
         <v>403</v>
       </c>
-      <c r="I61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
+        <v>37</v>
+      </c>
+      <c r="L61" t="s">
         <v>404</v>
       </c>
-      <c r="K61" t="s">
-        <v>37</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="M61" t="s">
         <v>405</v>
-      </c>
-      <c r="M61" t="s">
-        <v>406</v>
       </c>
       <c r="N61" t="s">
         <v>41</v>
       </c>
       <c r="O61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P61" t="s">
         <v>72</v>
@@ -11384,7 +11381,7 @@
         <v>37</v>
       </c>
       <c r="AA61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB61" t="s">
         <v>37</v>
@@ -11407,41 +11404,41 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F62" t="s">
         <v>66</v>
       </c>
       <c r="H62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I62" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K62" t="s">
         <v>37</v>
       </c>
       <c r="L62" t="s">
+        <v>270</v>
+      </c>
+      <c r="M62" t="s">
         <v>271</v>
-      </c>
-      <c r="M62" t="s">
-        <v>272</v>
       </c>
       <c r="N62" t="s">
         <v>41</v>
       </c>
       <c r="O62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P62" t="s">
         <v>72</v>
@@ -11456,7 +11453,7 @@
         <v>37</v>
       </c>
       <c r="T62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="U62" t="s">
         <v>59</v>
@@ -11500,26 +11497,26 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s">
+        <v>414</v>
+      </c>
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" t="s">
         <v>415</v>
       </c>
-      <c r="F63" t="s">
-        <v>90</v>
-      </c>
-      <c r="H63" t="s">
-        <v>416</v>
-      </c>
       <c r="I63" t="s">
         <v>37</v>
       </c>
       <c r="J63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K63" t="s">
         <v>37</v>
@@ -11528,13 +11525,13 @@
         <v>70</v>
       </c>
       <c r="M63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N63" t="s">
         <v>41</v>
       </c>
       <c r="O63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P63" t="s">
         <v>43</v>
@@ -11570,7 +11567,7 @@
         <v>37</v>
       </c>
       <c r="AA63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB63" t="s">
         <v>37</v>
@@ -11593,44 +11590,44 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s">
+        <v>418</v>
+      </c>
+      <c r="F64" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" t="s">
         <v>419</v>
       </c>
-      <c r="F64" t="s">
-        <v>207</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
+        <v>186</v>
+      </c>
+      <c r="J64" t="s">
+        <v>321</v>
+      </c>
+      <c r="K64" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" t="s">
         <v>420</v>
       </c>
-      <c r="I64" t="s">
-        <v>187</v>
-      </c>
-      <c r="J64" t="s">
-        <v>322</v>
-      </c>
-      <c r="K64" t="s">
-        <v>37</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>421</v>
-      </c>
-      <c r="M64" t="s">
-        <v>422</v>
       </c>
       <c r="N64" t="s">
         <v>41</v>
       </c>
       <c r="O64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q64" t="s">
         <v>37</v>
@@ -11663,10 +11660,10 @@
         <v>37</v>
       </c>
       <c r="AA64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AB64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AC64">
         <v>9</v>
@@ -11686,41 +11683,41 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F65" t="s">
         <v>66</v>
       </c>
       <c r="H65" t="s">
+        <v>216</v>
+      </c>
+      <c r="I65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" t="s">
         <v>217</v>
       </c>
-      <c r="I65" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
+        <v>37</v>
+      </c>
+      <c r="L65" t="s">
         <v>218</v>
       </c>
-      <c r="K65" t="s">
-        <v>37</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>219</v>
-      </c>
-      <c r="M65" t="s">
-        <v>220</v>
       </c>
       <c r="N65" t="s">
         <v>41</v>
       </c>
       <c r="O65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P65" t="s">
         <v>72</v>
@@ -11779,41 +11776,41 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F66" t="s">
         <v>51</v>
       </c>
       <c r="H66" t="s">
+        <v>429</v>
+      </c>
+      <c r="I66" t="s">
+        <v>186</v>
+      </c>
+      <c r="J66" t="s">
         <v>430</v>
       </c>
-      <c r="I66" t="s">
-        <v>187</v>
-      </c>
-      <c r="J66" t="s">
-        <v>431</v>
-      </c>
       <c r="K66" t="s">
         <v>37</v>
       </c>
       <c r="L66" t="s">
+        <v>351</v>
+      </c>
+      <c r="M66" t="s">
         <v>352</v>
-      </c>
-      <c r="M66" t="s">
-        <v>353</v>
       </c>
       <c r="N66" t="s">
         <v>41</v>
       </c>
       <c r="O66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P66" t="s">
         <v>72</v>
@@ -11849,7 +11846,7 @@
         <v>37</v>
       </c>
       <c r="AA66" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB66" t="s">
         <v>86</v>
@@ -11872,41 +11869,41 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s">
+        <v>433</v>
+      </c>
+      <c r="F67" t="s">
+        <v>206</v>
+      </c>
+      <c r="H67" t="s">
         <v>434</v>
       </c>
-      <c r="F67" t="s">
-        <v>207</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
+        <v>186</v>
+      </c>
+      <c r="J67" t="s">
+        <v>233</v>
+      </c>
+      <c r="K67" t="s">
+        <v>37</v>
+      </c>
+      <c r="L67" t="s">
         <v>435</v>
       </c>
-      <c r="I67" t="s">
-        <v>187</v>
-      </c>
-      <c r="J67" t="s">
-        <v>234</v>
-      </c>
-      <c r="K67" t="s">
-        <v>37</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="M67" t="s">
         <v>436</v>
-      </c>
-      <c r="M67" t="s">
-        <v>437</v>
       </c>
       <c r="N67" t="s">
         <v>41</v>
       </c>
       <c r="O67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P67" t="s">
         <v>43</v>
@@ -11942,7 +11939,7 @@
         <v>37</v>
       </c>
       <c r="AA67" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AB67" t="s">
         <v>86</v>
@@ -11965,41 +11962,41 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
+        <v>237</v>
+      </c>
+      <c r="I68" t="s">
         <v>238</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>239</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" t="s">
+        <v>121</v>
+      </c>
+      <c r="M68" t="s">
         <v>240</v>
-      </c>
-      <c r="K68" t="s">
-        <v>37</v>
-      </c>
-      <c r="L68" t="s">
-        <v>122</v>
-      </c>
-      <c r="M68" t="s">
-        <v>241</v>
       </c>
       <c r="N68" t="s">
         <v>41</v>
       </c>
       <c r="O68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P68" t="s">
         <v>72</v>
@@ -12058,44 +12055,44 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I69" t="s">
         <v>79</v>
       </c>
       <c r="J69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K69" t="s">
         <v>37</v>
       </c>
       <c r="L69" t="s">
+        <v>218</v>
+      </c>
+      <c r="M69" t="s">
         <v>219</v>
-      </c>
-      <c r="M69" t="s">
-        <v>220</v>
       </c>
       <c r="N69" t="s">
         <v>41</v>
       </c>
       <c r="O69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q69" t="s">
         <v>37</v>
@@ -12128,7 +12125,7 @@
         <v>37</v>
       </c>
       <c r="AA69" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB69" t="s">
         <v>86</v>
@@ -12151,26 +12148,26 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
         <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I70" t="s">
         <v>54</v>
       </c>
       <c r="J70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K70" t="s">
         <v>37</v>
@@ -12179,16 +12176,16 @@
         <v>56</v>
       </c>
       <c r="M70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N70" t="s">
         <v>41</v>
       </c>
       <c r="O70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q70" t="s">
         <v>37</v>
@@ -12221,7 +12218,7 @@
         <v>37</v>
       </c>
       <c r="AA70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB70" t="s">
         <v>62</v>
@@ -12244,41 +12241,41 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s">
+        <v>450</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s">
         <v>451</v>
       </c>
-      <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
+        <v>186</v>
+      </c>
+      <c r="J71" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" t="s">
+        <v>150</v>
+      </c>
+      <c r="M71" t="s">
         <v>452</v>
-      </c>
-      <c r="I71" t="s">
-        <v>187</v>
-      </c>
-      <c r="J71" t="s">
-        <v>114</v>
-      </c>
-      <c r="K71" t="s">
-        <v>37</v>
-      </c>
-      <c r="L71" t="s">
-        <v>151</v>
-      </c>
-      <c r="M71" t="s">
-        <v>453</v>
       </c>
       <c r="N71" t="s">
         <v>41</v>
       </c>
       <c r="O71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P71" t="s">
         <v>72</v>
@@ -12314,7 +12311,7 @@
         <v>37</v>
       </c>
       <c r="AA71" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB71" t="s">
         <v>86</v>
@@ -12337,44 +12334,44 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s">
+        <v>455</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="H72" t="s">
         <v>456</v>
       </c>
-      <c r="F72" t="s">
-        <v>97</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
+        <v>186</v>
+      </c>
+      <c r="J72" t="s">
+        <v>308</v>
+      </c>
+      <c r="K72" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" t="s">
         <v>457</v>
       </c>
-      <c r="I72" t="s">
-        <v>187</v>
-      </c>
-      <c r="J72" t="s">
-        <v>309</v>
-      </c>
-      <c r="K72" t="s">
-        <v>37</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>458</v>
-      </c>
-      <c r="M72" t="s">
-        <v>459</v>
       </c>
       <c r="N72" t="s">
         <v>41</v>
       </c>
       <c r="O72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q72" t="s">
         <v>37</v>
@@ -12407,7 +12404,7 @@
         <v>37</v>
       </c>
       <c r="AA72" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB72" t="s">
         <v>86</v>
@@ -12430,44 +12427,44 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F73" t="s">
         <v>51</v>
       </c>
       <c r="H73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I73" t="s">
         <v>54</v>
       </c>
       <c r="J73" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K73" t="s">
         <v>37</v>
       </c>
       <c r="L73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M73" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N73" t="s">
         <v>41</v>
       </c>
       <c r="O73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q73" t="s">
         <v>37</v>
@@ -12500,10 +12497,10 @@
         <v>37</v>
       </c>
       <c r="AA73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC73">
         <v>4</v>
@@ -12523,26 +12520,26 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F74" t="s">
         <v>51</v>
       </c>
       <c r="H74" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I74" t="s">
         <v>54</v>
       </c>
       <c r="J74" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K74" t="s">
         <v>37</v>
@@ -12551,16 +12548,16 @@
         <v>56</v>
       </c>
       <c r="M74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N74" t="s">
         <v>41</v>
       </c>
       <c r="O74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q74" t="s">
         <v>37</v>
@@ -12593,7 +12590,7 @@
         <v>37</v>
       </c>
       <c r="AA74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB74" t="s">
         <v>62</v>
@@ -12616,23 +12613,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H75" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J75" t="s">
         <v>55</v>
@@ -12641,16 +12638,16 @@
         <v>37</v>
       </c>
       <c r="L75" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M75" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N75" t="s">
         <v>41</v>
       </c>
       <c r="O75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P75" t="s">
         <v>72</v>
@@ -12686,7 +12683,7 @@
         <v>37</v>
       </c>
       <c r="AA75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB75" t="s">
         <v>86</v>
@@ -12709,44 +12706,44 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s">
+        <v>474</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" t="s">
         <v>475</v>
       </c>
-      <c r="F76" t="s">
-        <v>97</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
+        <v>164</v>
+      </c>
+      <c r="J76" t="s">
         <v>476</v>
       </c>
-      <c r="I76" t="s">
-        <v>165</v>
-      </c>
-      <c r="J76" t="s">
-        <v>477</v>
-      </c>
       <c r="K76" t="s">
         <v>37</v>
       </c>
       <c r="L76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N76" t="s">
         <v>41</v>
       </c>
       <c r="O76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q76" t="s">
         <v>37</v>
@@ -12779,7 +12776,7 @@
         <v>37</v>
       </c>
       <c r="AA76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB76" t="s">
         <v>62</v>
@@ -12802,41 +12799,41 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s">
+        <v>479</v>
+      </c>
+      <c r="F77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" t="s">
         <v>480</v>
       </c>
-      <c r="F77" t="s">
-        <v>207</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
+        <v>186</v>
+      </c>
+      <c r="J77" t="s">
+        <v>358</v>
+      </c>
+      <c r="K77" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" t="s">
         <v>481</v>
       </c>
-      <c r="I77" t="s">
-        <v>187</v>
-      </c>
-      <c r="J77" t="s">
-        <v>359</v>
-      </c>
-      <c r="K77" t="s">
-        <v>37</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>482</v>
-      </c>
-      <c r="M77" t="s">
-        <v>483</v>
       </c>
       <c r="N77" t="s">
         <v>41</v>
       </c>
       <c r="O77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P77" t="s">
         <v>43</v>
@@ -12872,10 +12869,10 @@
         <v>37</v>
       </c>
       <c r="AA77" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB77" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC77">
         <v>8</v>
@@ -12895,41 +12892,41 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s">
+        <v>485</v>
+      </c>
+      <c r="F78" t="s">
+        <v>206</v>
+      </c>
+      <c r="H78" t="s">
         <v>486</v>
       </c>
-      <c r="F78" t="s">
-        <v>207</v>
-      </c>
-      <c r="H78" t="s">
-        <v>487</v>
-      </c>
       <c r="I78" t="s">
         <v>37</v>
       </c>
       <c r="J78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K78" t="s">
         <v>37</v>
       </c>
       <c r="L78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N78" t="s">
         <v>41</v>
       </c>
       <c r="O78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P78" t="s">
         <v>72</v>
@@ -12965,7 +12962,7 @@
         <v>37</v>
       </c>
       <c r="AA78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB78" t="s">
         <v>37</v>
@@ -12988,41 +12985,41 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F79" t="s">
         <v>66</v>
       </c>
       <c r="H79" t="s">
+        <v>490</v>
+      </c>
+      <c r="I79" t="s">
+        <v>238</v>
+      </c>
+      <c r="J79" t="s">
+        <v>250</v>
+      </c>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" t="s">
         <v>491</v>
       </c>
-      <c r="I79" t="s">
-        <v>239</v>
-      </c>
-      <c r="J79" t="s">
-        <v>251</v>
-      </c>
-      <c r="K79" t="s">
-        <v>37</v>
-      </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>492</v>
-      </c>
-      <c r="M79" t="s">
-        <v>493</v>
       </c>
       <c r="N79" t="s">
         <v>41</v>
       </c>
       <c r="O79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P79" t="s">
         <v>72</v>
@@ -13058,7 +13055,7 @@
         <v>37</v>
       </c>
       <c r="AA79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB79" t="s">
         <v>86</v>
@@ -13081,41 +13078,41 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>494</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s">
+        <v>495</v>
+      </c>
+      <c r="F80" t="s">
+        <v>117</v>
+      </c>
+      <c r="H80" t="s">
         <v>496</v>
-      </c>
-      <c r="F80" t="s">
-        <v>118</v>
-      </c>
-      <c r="H80" t="s">
-        <v>497</v>
       </c>
       <c r="I80" t="s">
         <v>79</v>
       </c>
       <c r="J80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K80" t="s">
         <v>37</v>
       </c>
       <c r="L80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M80" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N80" t="s">
         <v>41</v>
       </c>
       <c r="O80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P80" t="s">
         <v>58</v>
@@ -13151,7 +13148,7 @@
         <v>37</v>
       </c>
       <c r="AA80" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AB80" t="s">
         <v>86</v>
@@ -13174,44 +13171,44 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F81" t="s">
         <v>51</v>
       </c>
       <c r="H81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I81" t="s">
         <v>54</v>
       </c>
       <c r="J81" t="s">
+        <v>227</v>
+      </c>
+      <c r="K81" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81" t="s">
+        <v>100</v>
+      </c>
+      <c r="M81" t="s">
         <v>228</v>
-      </c>
-      <c r="K81" t="s">
-        <v>37</v>
-      </c>
-      <c r="L81" t="s">
-        <v>101</v>
-      </c>
-      <c r="M81" t="s">
-        <v>229</v>
       </c>
       <c r="N81" t="s">
         <v>41</v>
       </c>
       <c r="O81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P81" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q81" t="s">
         <v>37</v>
@@ -13244,10 +13241,10 @@
         <v>37</v>
       </c>
       <c r="AA81" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC81">
         <v>4</v>
@@ -13267,41 +13264,41 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F82" t="s">
         <v>51</v>
       </c>
       <c r="H82" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I82" t="s">
         <v>54</v>
       </c>
       <c r="J82" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K82" t="s">
         <v>37</v>
       </c>
       <c r="L82" t="s">
+        <v>505</v>
+      </c>
+      <c r="M82" t="s">
         <v>506</v>
-      </c>
-      <c r="M82" t="s">
-        <v>507</v>
       </c>
       <c r="N82" t="s">
         <v>41</v>
       </c>
       <c r="O82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P82" t="s">
         <v>58</v>
@@ -13337,7 +13334,7 @@
         <v>37</v>
       </c>
       <c r="AA82" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB82" t="s">
         <v>62</v>
@@ -13360,44 +13357,44 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F83" t="s">
         <v>51</v>
       </c>
       <c r="H83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I83" t="s">
         <v>54</v>
       </c>
       <c r="J83" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K83" t="s">
         <v>37</v>
       </c>
       <c r="L83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M83" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N83" t="s">
         <v>41</v>
       </c>
       <c r="O83" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P83" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q83" t="s">
         <v>37</v>
@@ -13430,10 +13427,10 @@
         <v>37</v>
       </c>
       <c r="AA83" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB83" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC83">
         <v>1</v>
@@ -13453,44 +13450,44 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F84" t="s">
         <v>51</v>
       </c>
       <c r="H84" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I84" t="s">
         <v>54</v>
       </c>
       <c r="J84" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K84" t="s">
         <v>37</v>
       </c>
       <c r="L84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N84" t="s">
         <v>41</v>
       </c>
       <c r="O84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q84" t="s">
         <v>37</v>
@@ -13526,7 +13523,7 @@
         <v>85</v>
       </c>
       <c r="AB84" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC84">
         <v>1</v>
@@ -13546,44 +13543,44 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s">
+        <v>517</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" t="s">
         <v>518</v>
       </c>
-      <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="H85" t="s">
-        <v>519</v>
-      </c>
       <c r="I85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K85" t="s">
         <v>37</v>
       </c>
       <c r="L85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N85" t="s">
         <v>41</v>
       </c>
       <c r="O85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q85" t="s">
         <v>37</v>
@@ -13616,10 +13613,10 @@
         <v>37</v>
       </c>
       <c r="AA85" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB85" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC85">
         <v>6</v>
@@ -13639,20 +13636,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s">
+        <v>521</v>
+      </c>
+      <c r="F86" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" t="s">
         <v>522</v>
-      </c>
-      <c r="F86" t="s">
-        <v>207</v>
-      </c>
-      <c r="H86" t="s">
-        <v>523</v>
       </c>
       <c r="I86" t="s">
         <v>37</v>
@@ -13664,19 +13661,19 @@
         <v>37</v>
       </c>
       <c r="L86" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N86" t="s">
         <v>41</v>
       </c>
       <c r="O86" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q86" t="s">
         <v>37</v>
@@ -13709,7 +13706,7 @@
         <v>37</v>
       </c>
       <c r="AA86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AB86" t="s">
         <v>37</v>
@@ -13732,41 +13729,41 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s">
+        <v>525</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
+      </c>
+      <c r="H87" t="s">
         <v>526</v>
       </c>
-      <c r="F87" t="s">
-        <v>207</v>
-      </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
+        <v>186</v>
+      </c>
+      <c r="J87" t="s">
+        <v>199</v>
+      </c>
+      <c r="K87" t="s">
+        <v>37</v>
+      </c>
+      <c r="L87" t="s">
         <v>527</v>
       </c>
-      <c r="I87" t="s">
-        <v>187</v>
-      </c>
-      <c r="J87" t="s">
-        <v>200</v>
-      </c>
-      <c r="K87" t="s">
-        <v>37</v>
-      </c>
-      <c r="L87" t="s">
-        <v>528</v>
-      </c>
       <c r="M87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N87" t="s">
         <v>41</v>
       </c>
       <c r="O87" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P87" t="s">
         <v>72</v>
@@ -13802,7 +13799,7 @@
         <v>37</v>
       </c>
       <c r="AA87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB87" t="s">
         <v>86</v>
@@ -13825,41 +13822,41 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s">
+        <v>530</v>
+      </c>
+      <c r="F88" t="s">
+        <v>117</v>
+      </c>
+      <c r="H88" t="s">
         <v>531</v>
-      </c>
-      <c r="F88" t="s">
-        <v>118</v>
-      </c>
-      <c r="H88" t="s">
-        <v>532</v>
       </c>
       <c r="I88" t="s">
         <v>79</v>
       </c>
       <c r="J88" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K88" t="s">
         <v>37</v>
       </c>
       <c r="L88" t="s">
+        <v>200</v>
+      </c>
+      <c r="M88" t="s">
         <v>201</v>
-      </c>
-      <c r="M88" t="s">
-        <v>202</v>
       </c>
       <c r="N88" t="s">
         <v>41</v>
       </c>
       <c r="O88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P88" t="s">
         <v>58</v>
@@ -13895,7 +13892,7 @@
         <v>37</v>
       </c>
       <c r="AA88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB88" t="s">
         <v>86</v>
@@ -13918,14 +13915,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F89" t="s">
         <v>51</v>
@@ -13937,22 +13934,22 @@
         <v>54</v>
       </c>
       <c r="J89" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K89" t="s">
         <v>37</v>
       </c>
       <c r="L89" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M89" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N89" t="s">
         <v>41</v>
       </c>
       <c r="O89" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P89" t="s">
         <v>58</v>
@@ -13991,7 +13988,7 @@
         <v>61</v>
       </c>
       <c r="AB89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC89">
         <v>2</v>
@@ -14011,41 +14008,41 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s">
+        <v>537</v>
+      </c>
+      <c r="F90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" t="s">
         <v>538</v>
       </c>
-      <c r="F90" t="s">
-        <v>90</v>
-      </c>
-      <c r="H90" t="s">
-        <v>539</v>
-      </c>
       <c r="I90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K90" t="s">
         <v>37</v>
       </c>
       <c r="L90" t="s">
+        <v>218</v>
+      </c>
+      <c r="M90" t="s">
         <v>219</v>
-      </c>
-      <c r="M90" t="s">
-        <v>220</v>
       </c>
       <c r="N90" t="s">
         <v>41</v>
       </c>
       <c r="O90" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P90" t="s">
         <v>43</v>
@@ -14081,10 +14078,10 @@
         <v>37</v>
       </c>
       <c r="AA90" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB90" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC90">
         <v>6</v>
@@ -14104,44 +14101,44 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F91" t="s">
         <v>51</v>
       </c>
       <c r="H91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I91" t="s">
         <v>54</v>
       </c>
       <c r="J91" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K91" t="s">
         <v>37</v>
       </c>
       <c r="L91" t="s">
+        <v>291</v>
+      </c>
+      <c r="M91" t="s">
         <v>292</v>
-      </c>
-      <c r="M91" t="s">
-        <v>293</v>
       </c>
       <c r="N91" t="s">
         <v>41</v>
       </c>
       <c r="O91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q91" t="s">
         <v>37</v>
@@ -14174,10 +14171,10 @@
         <v>37</v>
       </c>
       <c r="AA91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC91">
         <v>1</v>
@@ -14197,41 +14194,41 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F92" t="s">
         <v>51</v>
       </c>
       <c r="H92" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I92" t="s">
         <v>54</v>
       </c>
       <c r="J92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K92" t="s">
         <v>37</v>
       </c>
       <c r="L92" t="s">
+        <v>270</v>
+      </c>
+      <c r="M92" t="s">
         <v>271</v>
-      </c>
-      <c r="M92" t="s">
-        <v>272</v>
       </c>
       <c r="N92" t="s">
         <v>41</v>
       </c>
       <c r="O92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P92" t="s">
         <v>43</v>
@@ -14267,7 +14264,7 @@
         <v>37</v>
       </c>
       <c r="AA92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB92" t="s">
         <v>62</v>
@@ -14290,23 +14287,23 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F93" t="s">
         <v>51</v>
       </c>
       <c r="H93" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I93" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J93" t="s">
         <v>80</v>
@@ -14315,16 +14312,16 @@
         <v>37</v>
       </c>
       <c r="L93" t="s">
+        <v>200</v>
+      </c>
+      <c r="M93" t="s">
         <v>201</v>
-      </c>
-      <c r="M93" t="s">
-        <v>202</v>
       </c>
       <c r="N93" t="s">
         <v>41</v>
       </c>
       <c r="O93" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P93" t="s">
         <v>43</v>
@@ -14360,7 +14357,7 @@
         <v>37</v>
       </c>
       <c r="AA93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB93" t="s">
         <v>37</v>
@@ -14383,20 +14380,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F94" t="s">
         <v>51</v>
       </c>
       <c r="H94" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I94" t="s">
         <v>54</v>
@@ -14408,16 +14405,16 @@
         <v>37</v>
       </c>
       <c r="L94" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N94" t="s">
         <v>41</v>
       </c>
       <c r="O94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P94" t="s">
         <v>72</v>
@@ -14453,7 +14450,7 @@
         <v>37</v>
       </c>
       <c r="AA94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AB94" t="s">
         <v>62</v>
@@ -14476,38 +14473,38 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s">
+        <v>556</v>
+      </c>
+      <c r="F95" t="s">
+        <v>206</v>
+      </c>
+      <c r="G95" t="s">
         <v>557</v>
       </c>
-      <c r="F95" t="s">
-        <v>207</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>558</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
+        <v>186</v>
+      </c>
+      <c r="J95" t="s">
         <v>559</v>
       </c>
-      <c r="I95" t="s">
-        <v>187</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
+        <v>37</v>
+      </c>
+      <c r="L95" t="s">
         <v>560</v>
       </c>
-      <c r="K95" t="s">
-        <v>37</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>561</v>
-      </c>
-      <c r="M95" t="s">
-        <v>562</v>
       </c>
       <c r="N95" t="s">
         <v>41</v>
@@ -14519,10 +14516,10 @@
         <v>72</v>
       </c>
       <c r="Q95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S95" t="s">
         <v>45</v>
@@ -14540,7 +14537,7 @@
         <v>45</v>
       </c>
       <c r="X95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y95" t="s">
         <v>46</v>
@@ -14549,7 +14546,7 @@
         <v>45</v>
       </c>
       <c r="AA95" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AB95" t="s">
         <v>86</v>
@@ -14572,29 +14569,29 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s">
+        <v>565</v>
+      </c>
+      <c r="F96" t="s">
+        <v>206</v>
+      </c>
+      <c r="G96" t="s">
         <v>566</v>
       </c>
-      <c r="F96" t="s">
-        <v>207</v>
-      </c>
-      <c r="G96" t="s">
-        <v>567</v>
-      </c>
       <c r="H96" t="s">
+        <v>91</v>
+      </c>
+      <c r="I96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" t="s">
         <v>92</v>
-      </c>
-      <c r="I96" t="s">
-        <v>37</v>
-      </c>
-      <c r="J96" t="s">
-        <v>93</v>
       </c>
       <c r="K96" t="s">
         <v>37</v>
@@ -14668,38 +14665,38 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s">
+        <v>569</v>
+      </c>
+      <c r="F97" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" t="s">
         <v>570</v>
       </c>
-      <c r="F97" t="s">
-        <v>90</v>
-      </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
+        <v>297</v>
+      </c>
+      <c r="I97" t="s">
+        <v>37</v>
+      </c>
+      <c r="J97" t="s">
+        <v>227</v>
+      </c>
+      <c r="K97" t="s">
+        <v>37</v>
+      </c>
+      <c r="L97" t="s">
+        <v>165</v>
+      </c>
+      <c r="M97" t="s">
         <v>571</v>
-      </c>
-      <c r="H97" t="s">
-        <v>298</v>
-      </c>
-      <c r="I97" t="s">
-        <v>37</v>
-      </c>
-      <c r="J97" t="s">
-        <v>228</v>
-      </c>
-      <c r="K97" t="s">
-        <v>37</v>
-      </c>
-      <c r="L97" t="s">
-        <v>166</v>
-      </c>
-      <c r="M97" t="s">
-        <v>572</v>
       </c>
       <c r="N97" t="s">
         <v>41</v>
@@ -14764,38 +14761,38 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s">
+        <v>574</v>
+      </c>
+      <c r="F98" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" t="s">
         <v>575</v>
       </c>
-      <c r="F98" t="s">
-        <v>207</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>576</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
+        <v>186</v>
+      </c>
+      <c r="J98" t="s">
+        <v>269</v>
+      </c>
+      <c r="K98" t="s">
+        <v>37</v>
+      </c>
+      <c r="L98" t="s">
         <v>577</v>
       </c>
-      <c r="I98" t="s">
-        <v>187</v>
-      </c>
-      <c r="J98" t="s">
-        <v>270</v>
-      </c>
-      <c r="K98" t="s">
-        <v>37</v>
-      </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>578</v>
-      </c>
-      <c r="M98" t="s">
-        <v>579</v>
       </c>
       <c r="N98" t="s">
         <v>41</v>
@@ -14837,7 +14834,7 @@
         <v>37</v>
       </c>
       <c r="AA98" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AB98" t="s">
         <v>86</v>

--- a/spider/glory/glory_new.xlsx
+++ b/spider/glory/glory_new.xlsx
@@ -97,16 +97,16 @@
     <t>法力回复</t>
   </si>
   <si>
-    <t>生存能力：</t>
-  </si>
-  <si>
-    <t>攻击伤害：</t>
-  </si>
-  <si>
-    <t>技能效果：</t>
-  </si>
-  <si>
-    <t>上手难度：</t>
+    <t>生存能力</t>
+  </si>
+  <si>
+    <t>攻击伤害</t>
+  </si>
+  <si>
+    <t>技能效果</t>
+  </si>
+  <si>
+    <t>上手难度</t>
   </si>
   <si>
     <t>http://db.18183.com/wzry/hero/16108.html</t>
@@ -4429,7 +4429,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714375" cy="714375"/>
     <xdr:pic>
@@ -4445,7 +4445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9209405" y="47419260"/>
+          <a:off x="9209405" y="47438310"/>
           <a:ext cx="714375" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5768,8 +5768,8 @@
   <sheetPr/>
   <dimension ref="A1:AF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C56" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -5779,6 +5779,13 @@
     <col min="4" max="4" width="11.1538461538462" customWidth="1"/>
     <col min="6" max="6" width="10.8461538461538" customWidth="1"/>
     <col min="7" max="7" width="213.461538461538" customWidth="1"/>
+    <col min="8" max="9" width="10.3076923076923" customWidth="1"/>
+    <col min="11" max="12" width="10.3076923076923" customWidth="1"/>
+    <col min="13" max="13" width="12.7692307692308" customWidth="1"/>
+    <col min="14" max="14" width="10.3076923076923" customWidth="1"/>
+    <col min="15" max="15" width="12.7692307692308" customWidth="1"/>
+    <col min="28" max="28" width="10.3076923076923" customWidth="1"/>
+    <col min="29" max="32" width="12.7692307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32">
